--- a/association/src/main/webapp/resources/upload/excel/test3.xlsx
+++ b/association/src/main/webapp/resources/upload/excel/test3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>기수</t>
   </si>
@@ -117,41 +117,47 @@
     <t>931234</t>
   </si>
   <si>
-    <t>김두한</t>
-  </si>
-  <si>
-    <t>01055556666</t>
-  </si>
-  <si>
-    <t>카카오톡사원1</t>
-  </si>
-  <si>
-    <t>111111</t>
-  </si>
-  <si>
-    <t>박정숙</t>
-  </si>
-  <si>
-    <t>01066667777</t>
-  </si>
-  <si>
-    <t>카카오톡사원2</t>
-  </si>
-  <si>
-    <t>최정숙</t>
-  </si>
-  <si>
-    <t>01077778888</t>
-  </si>
-  <si>
-    <t>카카오톡사원3</t>
+    <t>이준우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라인사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@skhu.ac.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노욱진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +180,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,21 +207,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,6 +325,138 @@
         <a:xfrm>
           <a:off x="2019300" y="2766060"/>
           <a:ext cx="1021080" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011681" y="220981"/>
+          <a:ext cx="1021080" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011681" y="1912621"/>
+          <a:ext cx="1036320" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>937260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="3802380"/>
+          <a:ext cx="1013460" cy="937260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -579,13 +733,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="13.296875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.4">
@@ -710,7 +866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1</v>
       </c>
@@ -736,79 +892,85 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="I9" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>